--- a/Assets/Resources/OptionValueProb.xlsx
+++ b/Assets/Resources/OptionValueProb.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. WORK\5. GitHub\Daemonis\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C280BE92-61EA-40D8-A1F2-737651B08DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CB54CCC-F24D-4A61-B93C-709EF097DCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="2055" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AddOptionValueProb" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -22,17 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Tier0_Max</t>
   </si>
   <si>
-    <t>Tier1Min</t>
-  </si>
-  <si>
     <t>Tier1_Max</t>
   </si>
   <si>
@@ -149,6 +143,94 @@
   </si>
   <si>
     <t>포션 쿨타임 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tier1_Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHealthPercent</t>
+  </si>
+  <si>
+    <t>AttackPercent</t>
+  </si>
+  <si>
+    <t>DefencePercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicRegistPercent</t>
+  </si>
+  <si>
+    <t>MoveSpeedPercent</t>
+  </si>
+  <si>
+    <t>AttackSpeedPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DodgePercent</t>
+  </si>
+  <si>
+    <t>HitPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalDamage</t>
+  </si>
+  <si>
+    <t>HealthRegen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManaRegen</t>
+  </si>
+  <si>
+    <t>CoolDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecoverHealth_onhit</t>
+  </si>
+  <si>
+    <t>RecoverMana_onhit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VampiricRate</t>
+  </si>
+  <si>
+    <t>GoldPlus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpPlus</t>
+  </si>
+  <si>
+    <t>ItemLootRangePercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemDropPercent</t>
+  </si>
+  <si>
+    <t>PotionCoolDown</t>
+  </si>
+  <si>
+    <t>ItemLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option_String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,93 +605,100 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
         <v>0.1</v>
       </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>15</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J2">
         <v>20</v>
       </c>
       <c r="K2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L2">
         <v>25</v>
       </c>
       <c r="M2">
+        <v>25</v>
+      </c>
+      <c r="N2">
         <v>30</v>
       </c>
       <c r="O2" s="2"/>
@@ -622,42 +711,45 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>0.1</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>10</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>15</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J3">
         <v>20</v>
       </c>
       <c r="K3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L3">
         <v>25</v>
       </c>
       <c r="M3">
+        <v>25</v>
+      </c>
+      <c r="N3">
         <v>30</v>
       </c>
       <c r="O3" s="2"/>
@@ -670,42 +762,45 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>7</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J4">
         <v>9</v>
       </c>
       <c r="K4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L4">
         <v>12</v>
       </c>
       <c r="M4">
+        <v>12</v>
+      </c>
+      <c r="N4">
         <v>15</v>
       </c>
       <c r="O4" s="2"/>
@@ -718,42 +813,45 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>7</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J5">
         <v>9</v>
       </c>
       <c r="K5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L5">
         <v>12</v>
       </c>
       <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
         <v>15</v>
       </c>
       <c r="O5" s="2"/>
@@ -766,42 +864,45 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6">
         <v>0.1</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>7</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J6">
         <v>13</v>
       </c>
       <c r="K6">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="L6">
         <v>16.5</v>
       </c>
       <c r="M6">
+        <v>16.5</v>
+      </c>
+      <c r="N6">
         <v>20</v>
       </c>
       <c r="O6" s="2"/>
@@ -814,42 +915,45 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7">
         <v>0.1</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <v>7</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
       <c r="I7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J7">
         <v>13</v>
       </c>
       <c r="K7">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="L7">
         <v>16.5</v>
       </c>
       <c r="M7">
+        <v>16.5</v>
+      </c>
+      <c r="N7">
         <v>20</v>
       </c>
       <c r="O7" s="2"/>
@@ -862,42 +966,45 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8">
         <v>0.1</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>3</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L8">
         <v>5</v>
       </c>
       <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
         <v>7</v>
       </c>
       <c r="O8" s="2"/>
@@ -910,42 +1017,45 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
         <v>0.1</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9">
         <v>4</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L9">
         <v>5</v>
       </c>
       <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
         <v>7</v>
       </c>
       <c r="O9" s="2"/>
@@ -958,42 +1068,45 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>7</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
       <c r="I10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J10">
         <v>13</v>
       </c>
       <c r="K10">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="L10">
         <v>16.5</v>
       </c>
       <c r="M10">
+        <v>16.5</v>
+      </c>
+      <c r="N10">
         <v>20</v>
       </c>
       <c r="O10" s="2"/>
@@ -1006,42 +1119,45 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>15</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J11">
         <v>20</v>
       </c>
       <c r="K11">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L11">
         <v>25</v>
       </c>
       <c r="M11">
+        <v>25</v>
+      </c>
+      <c r="N11">
         <v>30</v>
       </c>
       <c r="O11" s="2"/>
@@ -1054,42 +1170,45 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>15</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H12">
         <v>20</v>
       </c>
       <c r="I12">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J12">
         <v>25</v>
       </c>
       <c r="K12">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L12">
         <v>30</v>
       </c>
       <c r="M12">
+        <v>30</v>
+      </c>
+      <c r="N12">
         <v>40</v>
       </c>
       <c r="O12" s="2"/>
@@ -1102,42 +1221,45 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>15</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H13">
         <v>20</v>
       </c>
       <c r="I13">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J13">
         <v>25</v>
       </c>
       <c r="K13">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L13">
         <v>30</v>
       </c>
       <c r="M13">
+        <v>30</v>
+      </c>
+      <c r="N13">
         <v>40</v>
       </c>
       <c r="O13" s="2"/>
@@ -1150,42 +1272,45 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14">
         <v>0.1</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>3</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14">
         <v>4</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L14">
         <v>5</v>
       </c>
       <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
         <v>7</v>
       </c>
       <c r="O14" s="2"/>
@@ -1198,42 +1323,45 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>6</v>
       </c>
       <c r="G15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H15">
         <v>9</v>
       </c>
       <c r="I15">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J15">
         <v>12</v>
       </c>
       <c r="K15">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L15">
         <v>15</v>
       </c>
       <c r="M15">
+        <v>15</v>
+      </c>
+      <c r="N15">
         <v>20</v>
       </c>
       <c r="O15" s="2"/>
@@ -1246,42 +1374,45 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>6</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H16">
         <v>9</v>
       </c>
       <c r="I16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J16">
         <v>12</v>
       </c>
       <c r="K16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L16">
         <v>15</v>
       </c>
       <c r="M16">
+        <v>15</v>
+      </c>
+      <c r="N16">
         <v>20</v>
       </c>
       <c r="O16" s="2"/>
@@ -1294,42 +1425,45 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17">
         <v>0.1</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <v>3</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17">
         <v>4</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L17">
         <v>5</v>
       </c>
       <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
         <v>7</v>
       </c>
       <c r="O17" s="2"/>
@@ -1342,42 +1476,45 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <v>10</v>
       </c>
       <c r="G18">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H18">
         <v>15</v>
       </c>
       <c r="I18">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J18">
         <v>20</v>
       </c>
       <c r="K18">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L18">
         <v>25</v>
       </c>
       <c r="M18">
+        <v>25</v>
+      </c>
+      <c r="N18">
         <v>30</v>
       </c>
       <c r="O18" s="2"/>
@@ -1390,42 +1527,45 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F19">
         <v>10</v>
       </c>
       <c r="G19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H19">
         <v>15</v>
       </c>
       <c r="I19">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J19">
         <v>20</v>
       </c>
       <c r="K19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L19">
         <v>25</v>
       </c>
       <c r="M19">
+        <v>25</v>
+      </c>
+      <c r="N19">
         <v>30</v>
       </c>
       <c r="O19" s="2"/>
@@ -1438,42 +1578,45 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>5</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>10</v>
       </c>
       <c r="G20">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <v>15</v>
       </c>
       <c r="I20">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J20">
         <v>20</v>
       </c>
       <c r="K20">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L20">
         <v>25</v>
       </c>
       <c r="M20">
+        <v>25</v>
+      </c>
+      <c r="N20">
         <v>30</v>
       </c>
       <c r="O20" s="2"/>
@@ -1486,42 +1629,45 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>15</v>
       </c>
       <c r="E21">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F21">
         <v>30</v>
       </c>
       <c r="G21">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H21">
         <v>45</v>
       </c>
       <c r="I21">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="J21">
         <v>60</v>
       </c>
       <c r="K21">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="L21">
         <v>75</v>
       </c>
       <c r="M21">
+        <v>75</v>
+      </c>
+      <c r="N21">
         <v>100</v>
       </c>
       <c r="O21" s="2"/>
@@ -1534,10 +1680,10 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1546,30 +1692,33 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
         <v>7</v>
       </c>
-      <c r="J22">
-        <v>5</v>
-      </c>
       <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
         <v>9</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>7</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>10</v>
       </c>
       <c r="O22" s="2"/>
@@ -1582,42 +1731,45 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>5</v>
       </c>
       <c r="G23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>7</v>
       </c>
       <c r="I23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J23">
         <v>9</v>
       </c>
       <c r="K23">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L23">
         <v>12</v>
       </c>
       <c r="M23">
+        <v>12</v>
+      </c>
+      <c r="N23">
         <v>15</v>
       </c>
       <c r="O23" s="2"/>
